--- a/src/test/resources/TestContents.xlsx
+++ b/src/test/resources/TestContents.xlsx
@@ -413,7 +413,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://app.cqtestga.com/tests/68caff59856581b5b5e72978/content</v>
+        <v>https://app.cqtestga.com/tests/68b189cae332e5595b2604c0/content</v>
       </c>
     </row>
   </sheetData>
